--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail7 Features.xlsx
@@ -4858,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,29 +4869,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4912,115 +4910,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5037,72 +5025,66 @@
         <v>1.173311603740984e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.832834128983162</v>
+        <v>7.751272998739913e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.943425809506929</v>
+        <v>5.922100104427839e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.751272998739913e-08</v>
+        <v>-0.09134479454818246</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.922100104427839e-07</v>
+        <v>0.3006112983604456</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09134479454818246</v>
+        <v>0.09849894452133363</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3006112983604456</v>
+        <v>1.928020030085179</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09849894452133363</v>
+        <v>2.737950277303065</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.948242107468096</v>
+        <v>4.432255174468773</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.737950277303065</v>
+        <v>6.951472980372257e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.432255174468773</v>
+        <v>6533527108.450924</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.951472980372257e-18</v>
+        <v>1.848159820015632e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6533527108.450924</v>
+        <v>296.7373635926999</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.848159820015632e-08</v>
+        <v>0.0001570900914965914</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>296.7373635926999</v>
+        <v>10.41514337954406</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001570900914965914</v>
+        <v>1.164661162210344</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.41514337954406</v>
+        <v>0.01704038091794189</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.164661162210344</v>
+        <v>3.161431550083326</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01704038091794189</v>
+        <v>0.9652824283448552</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.161431550083326</v>
+        <v>1.157952823131516</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9652824283448552</v>
+        <v>23</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.157952823131516</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.9411627858305986</v>
       </c>
     </row>
@@ -5117,72 +5099,66 @@
         <v>9.125566580089537e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.252201363120017</v>
+        <v>5.905147069121375e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.34704847647083</v>
+        <v>5.913132647467896e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.905147069121375e-08</v>
+        <v>-0.08101081728245166</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.913132647467896e-07</v>
+        <v>0.2969285070538437</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08101081728245166</v>
+        <v>0.0945335966805093</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2969285070538437</v>
+        <v>1.928009645579429</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0945335966805093</v>
+        <v>2.774505965420016</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.945534416557753</v>
+        <v>4.385024462119197</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.774505965420016</v>
+        <v>7.102026845129914e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.385024462119197</v>
+        <v>6587235816.120709</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.102026845129914e-18</v>
+        <v>1.83433506914433e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6587235816.120709</v>
+        <v>308.1688456565682</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.83433506914433e-08</v>
+        <v>0.0001572345473555596</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>308.1688456565682</v>
+        <v>10.99718796167027</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001572345473555596</v>
+        <v>1.097285796720275</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.99718796167027</v>
+        <v>0.01901565418273798</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.097285796720275</v>
+        <v>2.913970554840747</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01901565418273798</v>
+        <v>0.9652390044420923</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.913970554840747</v>
+        <v>1.190335468856014</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9652390044420923</v>
+        <v>56</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.190335468856014</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.7864132097251892</v>
       </c>
     </row>
@@ -5197,72 +5173,66 @@
         <v>7.377139059142296e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.47608837635072</v>
+        <v>4.539963834354193e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.12616209247059</v>
+        <v>5.90706753136052e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.539963834354193e-08</v>
+        <v>-0.06590666452345756</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.90706753136052e-07</v>
+        <v>0.2892750752579855</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06590666452345756</v>
+        <v>0.08785752967493728</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2892750752579855</v>
+        <v>1.920936239040606</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08785752967493728</v>
+        <v>2.742164140214846</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.940800899346341</v>
+        <v>4.389866307813522</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.742164140214846</v>
+        <v>7.086368985870192e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.389866307813522</v>
+        <v>6590915624.43346</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.086368985870192e-18</v>
+        <v>1.833939315176967e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>6590915624.43346</v>
+        <v>307.8330647013645</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.833939315176967e-08</v>
+        <v>0.0001563550362477274</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>307.8330647013645</v>
+        <v>10.49246427290757</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001563550362477274</v>
+        <v>1.131264641936767</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.49246427290757</v>
+        <v>0.01721340839873747</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.131264641936767</v>
+        <v>2.98374395394145</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01721340839873747</v>
+        <v>0.9625290809600862</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.98374395394145</v>
+        <v>1.190483702402562</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9625290809600862</v>
+        <v>52</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.190483702402562</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.7547426945796474</v>
       </c>
     </row>
@@ -5277,72 +5247,66 @@
         <v>6.305259661868856e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6797363031522482</v>
+        <v>3.52582126244521e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.190655809978767</v>
+        <v>5.903235882193612e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.52582126244521e-08</v>
+        <v>-0.04580175074656064</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.903235882193612e-07</v>
+        <v>0.2758149561740031</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04580175074656064</v>
+        <v>0.07804217820155551</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2758149561740031</v>
+        <v>1.91897540914177</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07804217820155551</v>
+        <v>2.695290706327107</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.936438130297672</v>
+        <v>4.378655558294365</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.695290706327107</v>
+        <v>7.122702151132039e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.378655558294365</v>
+        <v>6513427649.231204</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.122702151132039e-18</v>
+        <v>1.857363417463559e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>6513427649.231204</v>
+        <v>302.1787850199187</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.857363417463559e-08</v>
+        <v>0.0001703198051379809</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>302.1787850199187</v>
+        <v>9.142034505460074</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001703198051379809</v>
+        <v>1.402704162536934</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.142034505460074</v>
+        <v>0.01423478342125853</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.402704162536934</v>
+        <v>3.109174047779077</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01423478342125853</v>
+        <v>0.9611091024855977</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.109174047779077</v>
+        <v>1.155669630175182</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9611091024855977</v>
+        <v>44</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.155669630175182</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.7295325900089562</v>
       </c>
     </row>
@@ -5357,72 +5321,66 @@
         <v>5.76018036581076e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1383127325168477</v>
+        <v>2.76818122137737e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4986368842907813</v>
+        <v>5.901173412690181e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.76818122137737e-08</v>
+        <v>-0.022472513431706</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.901173412690181e-07</v>
+        <v>0.2569662925165962</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.022472513431706</v>
+        <v>0.06644370719512373</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2569662925165962</v>
+        <v>1.917717714007451</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06644370719512373</v>
+        <v>2.651611962105884</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.937543600859978</v>
+        <v>4.270373986568422</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.651611962105884</v>
+        <v>7.499999288375505e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.270373986568422</v>
+        <v>6403820875.317014</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.499999288375505e-18</v>
+        <v>1.892770352705116e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6403820875.317014</v>
+        <v>307.5668843406415</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.892770352705116e-08</v>
+        <v>0.0001978823491296918</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>307.5668843406415</v>
+        <v>9.197350617221403</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001978823491296918</v>
+        <v>1.595224492323048</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.197350617221403</v>
+        <v>0.01673911692329996</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.595224492323048</v>
+        <v>3.025819441729266</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01673911692329996</v>
+        <v>0.9602682500100149</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.025819441729266</v>
+        <v>1.156661741717717</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9602682500100149</v>
+        <v>44</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.156661741717717</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.6770225986729512</v>
       </c>
     </row>
@@ -5437,72 +5395,66 @@
         <v>5.616098920858504e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.01586706295631162</v>
+        <v>2.268096343281667e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9029946048008588</v>
+        <v>5.900590439697307e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.268096343281667e-08</v>
+        <v>0.002024822720114445</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.900590439697307e-07</v>
+        <v>0.2383417632052784</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.002024822720114445</v>
+        <v>0.05673804965474768</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2383417632052784</v>
+        <v>1.871049829256529</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05673804965474768</v>
+        <v>2.029409834617601</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.873913041068292</v>
+        <v>6.275358320181328</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.029409834617601</v>
+        <v>1.43547616729948e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.275358320181328</v>
+        <v>3329890110.892384</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.43547616729948e-17</v>
+        <v>3.562321950202337e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3329890110.892384</v>
+        <v>159.1680111922257</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.562321950202337e-08</v>
+        <v>0.0001939197636205805</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>159.1680111922257</v>
+        <v>10.04819431871187</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001939197636205805</v>
+        <v>1.403420733727242</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.04819431871187</v>
+        <v>0.01957934339585992</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.403420733727242</v>
+        <v>2.941424321423456</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01957934339585992</v>
+        <v>0.9581956186316725</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.941424321423456</v>
+        <v>1.357433664530766</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9581956186316725</v>
+        <v>42</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.357433664530766</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.5649261512987384</v>
       </c>
     </row>
@@ -5517,72 +5469,66 @@
         <v>5.797518271228925e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1549321803154486</v>
+        <v>2.668369525752103e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5109956729878755</v>
+        <v>5.901393965948925e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.668369525752103e-08</v>
+        <v>0.02584881660272739</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.901393965948925e-07</v>
+        <v>0.2268407671829728</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02584881660272739</v>
+        <v>0.05205332529176461</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2268407671829728</v>
+        <v>1.848280757409015</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05205332529176461</v>
+        <v>1.775999656556881</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.849816489572136</v>
+        <v>7.016791102583656</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.775999656556881</v>
+        <v>2.548092584301051e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.016791102583656</v>
+        <v>1920950831.435876</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.548092584301051e-17</v>
+        <v>6.061347328001439e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1920950831.435876</v>
+        <v>94.02594383525802</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.061347328001439e-08</v>
+        <v>0.0001732479906930807</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>94.02594383525802</v>
+        <v>11.31966292051698</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001732479906930807</v>
+        <v>1.14089854627138</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.31966292051698</v>
+        <v>0.02219909120378529</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.14089854627138</v>
+        <v>2.962128629045457</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02219909120378529</v>
+        <v>0.9555801998460816</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.962128629045457</v>
+        <v>1.242492861322416</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9555801998460816</v>
+        <v>42</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.242492861322416</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.5169206503232171</v>
       </c>
     </row>
@@ -5597,72 +5543,66 @@
         <v>6.338432505111647e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6086504120720079</v>
+        <v>3.516460133582825e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.7608300117485935</v>
+        <v>5.90375810563964e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.516460133582825e-08</v>
+        <v>0.05462039118623459</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.90375810563964e-07</v>
+        <v>0.2628350386431463</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.05462039118623459</v>
+        <v>0.07177115984046585</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2628350386431463</v>
+        <v>1.661526942690949</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07177115984046585</v>
+        <v>1.374575774431584</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.618752440961622</v>
+        <v>5.106788021407498</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.374575774431584</v>
+        <v>4.825750305900247e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.106788021407498</v>
+        <v>118525236.0725673</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.825750305900247e-16</v>
+        <v>8.330124196329627e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>118525236.0725673</v>
+        <v>6.7793257873776</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>8.330124196329627e-07</v>
+        <v>0.0003247199392295294</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.7793257873776</v>
+        <v>10.32963794067621</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0003247199392295294</v>
+        <v>1.827606126650594</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.32963794067621</v>
+        <v>0.03464807861338225</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.827606126650594</v>
+        <v>2.525842432534161</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03464807861338225</v>
+        <v>0.9464076757215851</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.525842432534161</v>
+        <v>1.75415276375354</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9464076757215851</v>
+        <v>42</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.75415276375354</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2130594414987484</v>
       </c>
     </row>
@@ -5677,72 +5617,66 @@
         <v>7.682537720456671e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.641290142865976</v>
+        <v>5.228112865320624e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5.272135650968409</v>
+        <v>5.908763302705576e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.228112865320624e-08</v>
+        <v>0.08768264278202115</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.908763302705576e-07</v>
+        <v>0.3516881343268116</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.08768264278202115</v>
+        <v>0.1309119802320366</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3516881343268116</v>
+        <v>1.572527502857508</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1309119802320366</v>
+        <v>1.375852032491974</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.52642510965879</v>
+        <v>4.115234864396206</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.375852032491974</v>
+        <v>7.431410578956392e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.115234864396206</v>
+        <v>79648555.83818413</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.431410578956392e-16</v>
+        <v>1.132722284305506e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>79648555.83818413</v>
+        <v>4.714406944320244</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.132722284305506e-06</v>
+        <v>0.0002383894895609593</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.714406944320244</v>
+        <v>11.91645285379134</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002383894895609593</v>
+        <v>1.384027708199321</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.91645285379134</v>
+        <v>0.03385174820843148</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.384027708199321</v>
+        <v>2.808065739956652</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03385174820843148</v>
+        <v>0.9393918615101214</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.808065739956652</v>
+        <v>1.714196286131503</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9393918615101214</v>
+        <v>42</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.714196286131503</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1757302286820235</v>
       </c>
     </row>
@@ -5757,72 +5691,66 @@
         <v>1.028182541800145e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.808455074259399</v>
+        <v>7.357860353441142e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>11.33705814178191</v>
+        <v>5.917434572842944e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.357860353441142e-08</v>
+        <v>0.1031141715774815</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.917434572842944e-07</v>
+        <v>0.3656260279910387</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.1031141715774815</v>
+        <v>0.1440568126919383</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3656260279910387</v>
+        <v>1.472849464189076</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1440568126919383</v>
+        <v>1.39946265645658</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.420631985745645</v>
+        <v>4.992623177283731</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.39946265645658</v>
+        <v>8.224055336171604e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.992623177283731</v>
+        <v>84643232.51363857</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.224055336171604e-16</v>
+        <v>9.219518841010474e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>84643232.51363857</v>
+        <v>5.892105374310145</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.219518841010474e-07</v>
+        <v>0.0001268737697851637</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.892105374310145</v>
+        <v>12.07915136913755</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001268737697851637</v>
+        <v>1.062651026331809</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.07915136913755</v>
+        <v>0.01851163128758927</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.062651026331809</v>
+        <v>3.210193789957119</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01851163128758927</v>
+        <v>0.9322032200749738</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.210193789957119</v>
+        <v>1.848678762508489</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9322032200749738</v>
+        <v>43</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.848678762508489</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.223403234603445</v>
       </c>
     </row>
@@ -5837,72 +5765,66 @@
         <v>1.38368549785492e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3.288997387470634</v>
+        <v>9.164547032087343e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12.89413081292574</v>
+        <v>5.929724342524479e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.164547032087343e-08</v>
+        <v>0.1000717959675371</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.929724342524479e-07</v>
+        <v>0.3130906847296768</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.1000717959675371</v>
+        <v>0.1079580655025714</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3130906847296768</v>
+        <v>1.456197393496219</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1079580655025714</v>
+        <v>1.406487144623256</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.402581868264514</v>
+        <v>4.866487889118435</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.406487144623256</v>
+        <v>1.06367890371378e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.866487889118435</v>
+        <v>66375798.52818235</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.06367890371378e-15</v>
+        <v>1.173547532671816e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>66375798.52818235</v>
+        <v>4.686299745709099</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.173547532671816e-06</v>
+        <v>0.0001075007566223476</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4.686299745709099</v>
+        <v>8.147135747824628</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001075007566223476</v>
+        <v>1.348351191678295</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.147135747824628</v>
+        <v>0.00713545096747874</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.348351191678295</v>
+        <v>3.493979831943823</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.00713545096747874</v>
+        <v>0.9286194492831211</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.493979831943823</v>
+        <v>1.898379846717644</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9286194492831211</v>
+        <v>43</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.898379846717644</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2230218199349225</v>
       </c>
     </row>
@@ -5917,72 +5839,66 @@
         <v>1.771828084953064e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3.263328898138334</v>
+        <v>1.047679803011979e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>11.35138215723843</v>
+        <v>5.944813509230016e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.047679803011979e-07</v>
+        <v>0.09137614807291182</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.944813509230016e-07</v>
+        <v>0.2582881497566281</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.09137614807291182</v>
+        <v>0.07503950914126066</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2582881497566281</v>
+        <v>1.445065193318293</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.07503950914126066</v>
+        <v>1.400398105273786</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.392655371858692</v>
+        <v>4.470385734797359</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.400398105273786</v>
+        <v>1.280287848161045e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.470385734797359</v>
+        <v>55009419.71889243</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.280287848161045e-15</v>
+        <v>1.404530591796448e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>55009419.71889243</v>
+        <v>3.874197448967935</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.404530591796448e-06</v>
+        <v>0.0001175033181153008</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.874197448967935</v>
+        <v>7.088684278693943</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001175033181153008</v>
+        <v>1.493212888343317</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.088684278693943</v>
+        <v>0.005904476497804469</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.493212888343317</v>
+        <v>3.413543698076953</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005904476497804469</v>
+        <v>0.9276725712999072</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.413543698076953</v>
+        <v>1.895688411618558</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9276725712999072</v>
+        <v>43</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.895688411618558</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2056803030567968</v>
       </c>
     </row>
@@ -5997,72 +5913,66 @@
         <v>2.152825182170461e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3.0542709269114</v>
+        <v>1.134166106571152e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>9.148691554614873</v>
+        <v>5.961817183128767e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.134166106571152e-07</v>
+        <v>0.08222213904383073</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.961817183128767e-07</v>
+        <v>0.2163391376087742</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.08222213904383073</v>
+        <v>0.0535574826601866</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2163391376087742</v>
+        <v>1.447772388469699</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0535574826601866</v>
+        <v>1.390600182079619</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.394438182826281</v>
+        <v>4.261213305944622</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.390600182079619</v>
+        <v>1.40906514313567e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.261213305944622</v>
+        <v>50787086.14577869</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.40906514313567e-15</v>
+        <v>1.552016375732805e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>50787086.14577869</v>
+        <v>3.634441345444458</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.552016375732805e-06</v>
+        <v>0.0001292729328716962</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3.634441345444458</v>
+        <v>7.907366853281866</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001292729328716962</v>
+        <v>1.300980473293188</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.907366853281866</v>
+        <v>0.008082977644963348</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.300980473293188</v>
+        <v>3.203551640861956</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008082977644963348</v>
+        <v>0.9275540172363965</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.203551640861956</v>
+        <v>1.913865560473877</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9275540172363965</v>
+        <v>38</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.913865560473877</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1936670339155926</v>
       </c>
     </row>
@@ -6077,72 +5987,66 @@
         <v>2.508064998621361e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.802974484095517</v>
+        <v>1.187376030372521e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7.138011658374095</v>
+        <v>5.979996800188923e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.187376030372521e-07</v>
+        <v>0.07403836751390003</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.979996800188923e-07</v>
+        <v>0.186401193980564</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.07403836751390003</v>
+        <v>0.04022609392604566</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.186401193980564</v>
+        <v>1.44157780626044</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04022609392604566</v>
+        <v>1.386204144889522</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.385238312417201</v>
+        <v>4.174746202202017</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.386204144889522</v>
+        <v>1.46803856308627e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.174746202202017</v>
+        <v>48704200.5852825</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.46803856308627e-15</v>
+        <v>1.606962852173891e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>48704200.5852825</v>
+        <v>3.482333034492646</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.606962852173891e-06</v>
+        <v>0.0001424315461112011</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3.482333034492646</v>
+        <v>9.400271512744771</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001424315461112011</v>
+        <v>1.175765254626535</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.400271512744771</v>
+        <v>0.01258597845811017</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.175765254626535</v>
+        <v>2.963403670099948</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01258597845811017</v>
+        <v>0.9296307990401329</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.963403670099948</v>
+        <v>1.887686347919721</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9296307990401329</v>
+        <v>38</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.887686347919721</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1859700800102261</v>
       </c>
     </row>
@@ -6157,72 +6061,66 @@
         <v>2.831170418008248e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.557765263876616</v>
+        <v>1.216580915617036e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>5.484673693477433</v>
+        <v>5.998787504649394e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.216580915617036e-07</v>
+        <v>0.06688480664567312</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5.998787504649394e-07</v>
+        <v>0.1651305271045688</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.06688480664567312</v>
+        <v>0.03174185537588117</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1651305271045688</v>
+        <v>1.438582559531102</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03174185537588117</v>
+        <v>1.393504734122875</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.383902417323264</v>
+        <v>4.131680812666838</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.393504734122875</v>
+        <v>1.498801413282978e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.131680812666838</v>
+        <v>48197861.65049859</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.498801413282978e-15</v>
+        <v>1.637749908046039e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>48197861.65049859</v>
+        <v>3.481766443983909</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.637749908046039e-06</v>
+        <v>0.0001512868680893804</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.481766443983909</v>
+        <v>10.65198824697107</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001512868680893804</v>
+        <v>1.120453908500519</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.65198824697107</v>
+        <v>0.01716574234142304</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.120453908500519</v>
+        <v>2.80405035491254</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01716574234142304</v>
+        <v>0.9290916305744706</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.80405035491254</v>
+        <v>1.875500937913327</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9290916305744706</v>
+        <v>38</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.875500937913327</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1831685552740658</v>
       </c>
     </row>
@@ -6237,72 +6135,66 @@
         <v>3.121212269321228e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.332446218990329</v>
+        <v>1.229345248296794e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4.160037504970838</v>
+        <v>6.017752529664216e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.229345248296794e-07</v>
+        <v>0.06067505262386027</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.017752529664216e-07</v>
+        <v>0.1497902078439695</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.06067505262386027</v>
+        <v>0.02611883319080411</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1497902078439695</v>
+        <v>1.447349235160608</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02611883319080411</v>
+        <v>1.40354933108603</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.39164661505608</v>
+        <v>4.116826490869115</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.40354933108603</v>
+        <v>1.509636868420289e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.116826490869115</v>
+        <v>48598586.81965518</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.509636868420289e-15</v>
+        <v>1.659568381397529e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>48598586.81965518</v>
+        <v>3.565494535323444</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.659568381397529e-06</v>
+        <v>0.0001414317831712655</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.565494535323444</v>
+        <v>9.734422616921433</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001414317831712655</v>
+        <v>1.203845987707685</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.734422616921433</v>
+        <v>0.01340193203404258</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.203845987707685</v>
+        <v>3.099653492582648</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01340193203404258</v>
+        <v>0.9284684655144476</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.099653492582648</v>
+        <v>1.83234533698943</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9284684655144476</v>
+        <v>38</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.83234533698943</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1804359749104631</v>
       </c>
     </row>
@@ -6679,7 +6571,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.368153230998292</v>
+        <v>1.380199894181617</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.182398312447137</v>
@@ -6768,7 +6660,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.369120887408555</v>
+        <v>1.378794045529508</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.171634561497324</v>
@@ -6857,7 +6749,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381519792707213</v>
+        <v>1.396251079092798</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.106319624010813</v>
@@ -6946,7 +6838,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.39901653058638</v>
+        <v>1.411808651323784</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.305633453254127</v>
@@ -7035,7 +6927,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.393996472856764</v>
+        <v>1.398473252692872</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.370957447365483</v>
@@ -7124,7 +7016,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.383762988278476</v>
+        <v>1.389379768755615</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.109846813766463</v>
@@ -7213,7 +7105,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.424698595185836</v>
+        <v>1.435159312033648</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.180575293943965</v>
@@ -7302,7 +7194,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411034014283292</v>
+        <v>1.422248910208649</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.394020087203379</v>
@@ -7391,7 +7283,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.386053099606529</v>
+        <v>1.395380586797964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.399667208457339</v>
@@ -7480,7 +7372,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.407721065184908</v>
+        <v>1.422429622055192</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.399045679687566</v>
@@ -7569,7 +7461,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405941341270096</v>
+        <v>1.415920561791406</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.348158829856523</v>
@@ -7658,7 +7550,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.389309974158082</v>
+        <v>1.402756342392662</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.426654701717587</v>
@@ -7747,7 +7639,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.391668180661761</v>
+        <v>1.404296924843957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.346023618448634</v>
@@ -7836,7 +7728,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.412028185363727</v>
+        <v>1.418633842750368</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.265644524978677</v>
@@ -7925,7 +7817,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.415273418194751</v>
+        <v>1.42387372081084</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.374458744992459</v>
@@ -8014,7 +7906,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.431524252217718</v>
+        <v>1.442137894165649</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.265722683937459</v>
@@ -8103,7 +7995,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.470422734881996</v>
+        <v>1.475798159351708</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.475133664444947</v>
@@ -8192,7 +8084,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.470709089240779</v>
+        <v>1.46689520949705</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.403004400298326</v>
@@ -8281,7 +8173,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.495236229134022</v>
+        <v>1.49420446554279</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.320842824343286</v>
@@ -8370,7 +8262,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.52825358219346</v>
+        <v>1.522864084962531</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.133002546739647</v>
@@ -8459,7 +8351,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.507427009378799</v>
+        <v>1.50538943489149</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.264569166815879</v>
@@ -8548,7 +8440,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.510626808322852</v>
+        <v>1.510469244996144</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.342859618168154</v>
@@ -8637,7 +8529,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.546125764863473</v>
+        <v>1.542226128754759</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.134008151290645</v>
@@ -8726,7 +8618,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563386470758277</v>
+        <v>1.561855094541281</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.361484803131825</v>
@@ -8815,7 +8707,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55849931759191</v>
+        <v>1.55537976639187</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.324818130282175</v>
@@ -8904,7 +8796,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60161898439293</v>
+        <v>1.593452810591585</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.407758858261353</v>
@@ -8993,7 +8885,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607119805150565</v>
+        <v>1.600691697592269</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.396093606069176</v>
@@ -9082,7 +8974,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538804994800455</v>
+        <v>1.540409544141773</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.273437656001265</v>
@@ -9171,7 +9063,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.547411529087876</v>
+        <v>1.555777806176675</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.129696338941455</v>
@@ -9260,7 +9152,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548325574554923</v>
+        <v>1.559357139356609</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.20011658476334</v>
@@ -9349,7 +9241,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553112249254182</v>
+        <v>1.565688773408976</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.215786906309666</v>
@@ -9438,7 +9330,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549369856808953</v>
+        <v>1.568394734801162</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.214909560034513</v>
@@ -9527,7 +9419,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.587399522583757</v>
+        <v>1.610164426945718</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.092298801620895</v>
@@ -9616,7 +9508,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.577422666706272</v>
+        <v>1.601086288096884</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.209817896300205</v>
@@ -9705,7 +9597,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.550503067538945</v>
+        <v>1.575546302350675</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.147136205900535</v>
@@ -9794,7 +9686,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.57825070944075</v>
+        <v>1.602834996224219</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.184856628720928</v>
@@ -9883,7 +9775,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52638820782751</v>
+        <v>1.552724614518746</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.21857427850675</v>
@@ -9972,7 +9864,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527621115416071</v>
+        <v>1.552425348545818</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.278210688111857</v>
@@ -10061,7 +9953,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551982703343425</v>
+        <v>1.578888196839746</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.279128357825313</v>
@@ -10150,7 +10042,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.532064706878151</v>
+        <v>1.557778813496768</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.205453295684399</v>
@@ -10239,7 +10131,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.5375136857393</v>
+        <v>1.567360235572569</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.285929313727337</v>
@@ -10328,7 +10220,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.575347444109114</v>
+        <v>1.614056824088595</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.444142370131477</v>
@@ -10417,7 +10309,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.633908228234823</v>
+        <v>1.677496478179403</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.673028399280604</v>
@@ -10506,7 +10398,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.472968356635543</v>
+        <v>1.494860129790783</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.672017092476079</v>
@@ -10595,7 +10487,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.414305978972283</v>
+        <v>1.458412524246689</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.673529285263741</v>
@@ -10684,7 +10576,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.405258487484625</v>
+        <v>1.446456270577558</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.66652828066431</v>
@@ -10773,7 +10665,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.392696541742144</v>
+        <v>1.433545351959477</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.669366506103556</v>
@@ -10862,7 +10754,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.394521267524241</v>
+        <v>1.435742993728763</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.672586455927993</v>
@@ -10951,7 +10843,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.390129582599935</v>
+        <v>1.431771050583956</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.666852407534779</v>
@@ -11040,7 +10932,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.401558097927584</v>
+        <v>1.443776732831193</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.669310777595099</v>
@@ -11129,7 +11021,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.393704157215767</v>
+        <v>1.431182986430762</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.680682335258416</v>
@@ -11218,7 +11110,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.399200824939633</v>
+        <v>1.44327809922189</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.683703224169766</v>
@@ -11307,7 +11199,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.389483405595012</v>
+        <v>1.433059067028278</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.67779068716353</v>
@@ -11396,7 +11288,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.390391067856169</v>
+        <v>1.434069573310049</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.676881168239146</v>
@@ -11485,7 +11377,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.392790083521786</v>
+        <v>1.438187201569395</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.668158561632247</v>
@@ -11574,7 +11466,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.384008888392104</v>
+        <v>1.422295980374438</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.67310869304623</v>
@@ -11663,7 +11555,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.338133112710703</v>
+        <v>1.372407006578272</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.613133257017356</v>
@@ -11752,7 +11644,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.304862623946325</v>
+        <v>1.329784105977841</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.571115995388111</v>
@@ -11841,7 +11733,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.45592570889991</v>
+        <v>1.48929531450425</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.011915479594833</v>
@@ -11930,7 +11822,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.499774839416758</v>
+        <v>1.529866681931689</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.419555991142859</v>
@@ -12019,7 +11911,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.495585751251137</v>
+        <v>1.52491104351973</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.225332733363869</v>
@@ -12305,7 +12197,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.520706778570848</v>
+        <v>1.527342736607765</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.739402189084594</v>
@@ -12394,7 +12286,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523976931439014</v>
+        <v>1.526242831789314</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.710821676654643</v>
@@ -12483,7 +12375,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519824767576064</v>
+        <v>1.520839376886347</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.607889802543361</v>
@@ -12572,7 +12464,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5352088634842</v>
+        <v>1.53201928717806</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.625885745592979</v>
@@ -12661,7 +12553,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.525340020993647</v>
+        <v>1.519601783388293</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.6903067223025</v>
@@ -12750,7 +12642,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.514114533095442</v>
+        <v>1.50997180622999</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.609285505802507</v>
@@ -12839,7 +12731,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.535950412823472</v>
+        <v>1.533320369353431</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.637443345752249</v>
@@ -12928,7 +12820,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.515329485931518</v>
+        <v>1.513298972748488</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.84484757121151</v>
@@ -13017,7 +12909,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50227829374739</v>
+        <v>1.499665216834655</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.794244129343185</v>
@@ -13106,7 +12998,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.52288494003744</v>
+        <v>1.515336211203733</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.800402067305407</v>
@@ -13195,7 +13087,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.52249052228596</v>
+        <v>1.514563146610081</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.845008246495012</v>
@@ -13284,7 +13176,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513115226128588</v>
+        <v>1.50288025443779</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.764311500574592</v>
@@ -13373,7 +13265,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.520526208535223</v>
+        <v>1.507839189275217</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.687301272298097</v>
@@ -13462,7 +13354,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.539436341957808</v>
+        <v>1.523150413342577</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.543372039925232</v>
@@ -13551,7 +13443,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539001938223736</v>
+        <v>1.527454337765533</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.621772590035288</v>
@@ -13640,7 +13532,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.551793635181512</v>
+        <v>1.545515930733459</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.650505983548761</v>
@@ -13729,7 +13621,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564780773330011</v>
+        <v>1.553184591470101</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.861343981160299</v>
@@ -13818,7 +13710,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.573971610603007</v>
+        <v>1.562400616099511</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.807378544395845</v>
@@ -13907,7 +13799,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.576297004484028</v>
+        <v>1.568059650918177</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.818912555518819</v>
@@ -13996,7 +13888,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609635872077204</v>
+        <v>1.587111333688289</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.006778061039912</v>
@@ -14085,7 +13977,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.599250442548184</v>
+        <v>1.58436819908155</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.814980144966173</v>
@@ -14174,7 +14066,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.588187247082069</v>
+        <v>1.57263113320837</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.858059501350354</v>
@@ -14263,7 +14155,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614629105960002</v>
+        <v>1.600094954821151</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.654245050177677</v>
@@ -14352,7 +14244,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596186629680598</v>
+        <v>1.582295282540589</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.75561541202047</v>
@@ -14441,7 +14333,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577706205298389</v>
+        <v>1.568525468075739</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.840138445229913</v>
@@ -14530,7 +14422,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579558296830268</v>
+        <v>1.576108869144552</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.761711868497045</v>
@@ -14619,7 +14511,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58023755023632</v>
+        <v>1.577096109608978</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.696311154021847</v>
@@ -14708,7 +14600,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540191798579948</v>
+        <v>1.539296386981918</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.711803372669963</v>
@@ -14797,7 +14689,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.523830596107216</v>
+        <v>1.526383520724615</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.606278486251899</v>
@@ -14886,7 +14778,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.529903931645381</v>
+        <v>1.5258509516656</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.697597401615306</v>
@@ -14975,7 +14867,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521911555555773</v>
+        <v>1.514885607645634</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.697911791120966</v>
@@ -15064,7 +14956,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.52195187321689</v>
+        <v>1.521041229355693</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.585498441338819</v>
@@ -15153,7 +15045,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.523312923693514</v>
+        <v>1.519191610315428</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.608161958874854</v>
@@ -15242,7 +15134,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.519331959909956</v>
+        <v>1.514878992493079</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.701602354194882</v>
@@ -15331,7 +15223,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504977633519364</v>
+        <v>1.506964831647783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.695351600566448</v>
@@ -15420,7 +15312,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.500837230771138</v>
+        <v>1.498230644142439</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.627148022896435</v>
@@ -15509,7 +15401,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.477282336227759</v>
+        <v>1.477977205982484</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.670609138479733</v>
@@ -15598,7 +15490,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458538686139716</v>
+        <v>1.456889047443186</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.644359046843561</v>
@@ -15687,7 +15579,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.465978366262851</v>
+        <v>1.466021248396642</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.575856546013994</v>
@@ -15776,7 +15668,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.458170710210691</v>
+        <v>1.457129120378102</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.522856221743571</v>
@@ -15865,7 +15757,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.514608692677425</v>
+        <v>1.526200578204109</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.007493745142617</v>
@@ -15954,7 +15846,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.578872552062634</v>
+        <v>1.614290375220041</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.927195459324766</v>
@@ -16043,7 +15935,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.665836947040732</v>
+        <v>1.709922601923193</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.115263352757279</v>
@@ -16132,7 +16024,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.63336773336728</v>
+        <v>1.676957062105511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.112254886502863</v>
@@ -16221,7 +16113,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.617750184511373</v>
+        <v>1.665473893060701</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.151545538184915</v>
@@ -16310,7 +16202,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617857779291566</v>
+        <v>1.666269325027955</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.155397822383895</v>
@@ -16399,7 +16291,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61486957159022</v>
+        <v>1.665595755117787</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.119428766917392</v>
@@ -16488,7 +16380,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.609930752423264</v>
+        <v>1.662317566780087</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.129608486997838</v>
@@ -16577,7 +16469,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.605176337666083</v>
+        <v>1.656369054248139</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.141451972623178</v>
@@ -16666,7 +16558,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612452510317809</v>
+        <v>1.663038881170031</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.158765402254495</v>
@@ -16755,7 +16647,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.61725549612143</v>
+        <v>1.666545033287952</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.145821590143252</v>
@@ -16844,7 +16736,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.626495154993311</v>
+        <v>1.676389952677885</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.067929039924115</v>
@@ -16933,7 +16825,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.632557424577146</v>
+        <v>1.682783336937603</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.074940339967847</v>
@@ -17022,7 +16914,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.633127813966822</v>
+        <v>1.68410678462512</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.123411104259803</v>
@@ -17111,7 +17003,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.637399680134663</v>
+        <v>1.68669831124647</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.106476978427382</v>
@@ -17200,7 +17092,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.615627800961611</v>
+        <v>1.661609807574369</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.030813257897445</v>
@@ -17289,7 +17181,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.575620198481182</v>
+        <v>1.608411654534357</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.185550128443062</v>
@@ -17378,7 +17270,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.412943022040516</v>
+        <v>1.416814849285869</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.762386739826331</v>
@@ -17467,7 +17359,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.471818229401011</v>
+        <v>1.469210014655748</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.248305599656389</v>
@@ -17556,7 +17448,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.472035366007505</v>
+        <v>1.470018704226457</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.538529455139886</v>
@@ -17645,7 +17537,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.473432519300226</v>
+        <v>1.466688133002477</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.393531381895597</v>
@@ -17931,7 +17823,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.804820984926309</v>
+        <v>1.757796217739399</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.364556063468985</v>
@@ -18020,7 +17912,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.804574143749925</v>
+        <v>1.758929653575789</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.861375677383118</v>
@@ -18109,7 +18001,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.794572529713303</v>
+        <v>1.751627153762531</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.77482937550931</v>
@@ -18198,7 +18090,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.797219657667618</v>
+        <v>1.756427017034667</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.343620286138779</v>
@@ -18287,7 +18179,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.789987758838171</v>
+        <v>1.746916162983526</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.337414082753503</v>
@@ -18376,7 +18268,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.791665183780223</v>
+        <v>1.746415162840941</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.609180347016484</v>
@@ -18465,7 +18357,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.790591569877578</v>
+        <v>1.74242124918474</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.286584782008597</v>
@@ -18554,7 +18446,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.794037096831299</v>
+        <v>1.739993164889603</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.733788420967298</v>
@@ -18643,7 +18535,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.79424730680391</v>
+        <v>1.740946035831638</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.142641995118538</v>
@@ -18732,7 +18624,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.793059301572418</v>
+        <v>1.737091668060238</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.184950309961952</v>
@@ -18821,7 +18713,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.793405289846883</v>
+        <v>1.738696324395639</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.60291899170338</v>
@@ -18910,7 +18802,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.799027295629985</v>
+        <v>1.744066534013544</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.345688842389485</v>
@@ -18999,7 +18891,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.801190332737405</v>
+        <v>1.749581913395405</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.833245332780931</v>
@@ -19088,7 +18980,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.799780802719432</v>
+        <v>1.748501814580912</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.622992105039239</v>
@@ -19177,7 +19069,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.796287091727313</v>
+        <v>1.752598751843305</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.556664761055838</v>
@@ -19266,7 +19158,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.799372397265806</v>
+        <v>1.756596827360209</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.306522174158546</v>
@@ -19355,7 +19247,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.80152846965894</v>
+        <v>1.754359439409502</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.500486370762923</v>
@@ -19444,7 +19336,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.794460302193632</v>
+        <v>1.749059992090431</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.510277295438366</v>
@@ -19533,7 +19425,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.791449182612124</v>
+        <v>1.745822388020637</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.337676843113259</v>
@@ -19622,7 +19514,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.790391135076559</v>
+        <v>1.746998465463905</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.135770536334128</v>
@@ -19711,7 +19603,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.783624832316395</v>
+        <v>1.742575986191867</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.504002393693079</v>
@@ -19800,7 +19692,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.786210613383899</v>
+        <v>1.749196762034811</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.398930636334461</v>
@@ -19889,7 +19781,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.783882624498639</v>
+        <v>1.750526344741316</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.527600467747625</v>
@@ -19978,7 +19870,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.7797624162663</v>
+        <v>1.746573612053444</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.486812684656113</v>
@@ -20067,7 +19959,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.773159421624448</v>
+        <v>1.736421934300139</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.553659865900378</v>
@@ -20156,7 +20048,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.77306002593886</v>
+        <v>1.740465314075542</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.816672755277466</v>
@@ -20245,7 +20137,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.771665177464548</v>
+        <v>1.736560022821828</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.342962435181732</v>
@@ -20334,7 +20226,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.762340067113727</v>
+        <v>1.73100404851158</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.478433898298059</v>
@@ -20423,7 +20315,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.758151492315267</v>
+        <v>1.726967510165179</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.783136544918278</v>
@@ -20512,7 +20404,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.755559247783179</v>
+        <v>1.725375626810251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.31580177436925</v>
@@ -20601,7 +20493,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.749415082942372</v>
+        <v>1.714639749153903</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.734018945030421</v>
@@ -20690,7 +20582,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.747558450079322</v>
+        <v>1.717049186173548</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.708414318607166</v>
@@ -20779,7 +20671,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.758548269578781</v>
+        <v>1.724272861065443</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.531480042572765</v>
@@ -20868,7 +20760,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.765628303074763</v>
+        <v>1.731432551810823</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.369587852283138</v>
@@ -20957,7 +20849,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.756071319301586</v>
+        <v>1.727994103674971</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.782420769844633</v>
@@ -21046,7 +20938,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.75172748615426</v>
+        <v>1.724887892173146</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.333311790341831</v>
@@ -21135,7 +21027,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.741469865329337</v>
+        <v>1.711927460536077</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.451020380905267</v>
@@ -21224,7 +21116,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.728470416108763</v>
+        <v>1.699516197359853</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.423298110807416</v>
@@ -21313,7 +21205,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.731491794602774</v>
+        <v>1.702848743645449</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.592685943685964</v>
@@ -21402,7 +21294,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731849266756393</v>
+        <v>1.706853990149637</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.290386784506749</v>
@@ -21491,7 +21383,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.742786266177146</v>
+        <v>1.726138470138898</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.940586708944575</v>
@@ -21580,7 +21472,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.809856462361742</v>
+        <v>1.804526516904837</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.090096578989876</v>
@@ -21669,7 +21561,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.849030687074114</v>
+        <v>1.840350717722353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.303643536515241</v>
@@ -21758,7 +21650,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.808671476158496</v>
+        <v>1.809017401355107</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.320745890971843</v>
@@ -21847,7 +21739,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.793004256490425</v>
+        <v>1.799729284469252</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.311899537191667</v>
@@ -21936,7 +21828,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.794181380877234</v>
+        <v>1.798681071467805</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.308643254508481</v>
@@ -22025,7 +21917,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.796847895534533</v>
+        <v>1.80155944371138</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.288868759467833</v>
@@ -22114,7 +22006,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.79517733966696</v>
+        <v>1.800197549131542</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.319590358813034</v>
@@ -22203,7 +22095,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.790411765539932</v>
+        <v>1.792828468994131</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.321013280553289</v>
@@ -22292,7 +22184,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.795077732840972</v>
+        <v>1.795359475829464</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.301826757481145</v>
@@ -22381,7 +22273,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.798902072795883</v>
+        <v>1.799299990125518</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.305615626939481</v>
@@ -22470,7 +22362,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.799184899828536</v>
+        <v>1.799055174058471</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.342792575386197</v>
@@ -22559,7 +22451,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.80581139288297</v>
+        <v>1.804521924079971</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.346225993262524</v>
@@ -22648,7 +22540,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.807137678038024</v>
+        <v>1.803420748513304</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.331425669767084</v>
@@ -22737,7 +22629,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.809713849040011</v>
+        <v>1.803831327477773</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.287949091686343</v>
@@ -22826,7 +22718,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.816129850287507</v>
+        <v>1.8062680262538</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.256971639812072</v>
@@ -22915,7 +22807,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.791046127646924</v>
+        <v>1.772164751677487</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.334961917956601</v>
@@ -23004,7 +22896,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.667909539909852</v>
+        <v>1.636190877905975</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.273535641557366</v>
@@ -23093,7 +22985,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.764702482576374</v>
+        <v>1.703000649021813</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.966174443837294</v>
@@ -23182,7 +23074,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.776976885693303</v>
+        <v>1.714540593632161</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.966777628903304</v>
@@ -23271,7 +23163,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.779167266435394</v>
+        <v>1.720603515451698</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.182304813662989</v>
@@ -23557,7 +23449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.739641856889026</v>
+        <v>1.747293461186566</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.826233743476059</v>
@@ -23646,7 +23538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.735553143720851</v>
+        <v>1.746953590223976</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.732736232434715</v>
@@ -23735,7 +23627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.73577686432975</v>
+        <v>1.744433984966678</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.927983450483985</v>
@@ -23824,7 +23716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.739250199334019</v>
+        <v>1.745906754358223</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.755514019245068</v>
@@ -23913,7 +23805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735812148846634</v>
+        <v>1.74109936539411</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.750184152165663</v>
@@ -24002,7 +23894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.742267582874592</v>
+        <v>1.748406576859469</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.936662302064513</v>
@@ -24091,7 +23983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.748811966796102</v>
+        <v>1.743562450323931</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.882800276613122</v>
@@ -24180,7 +24072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.748733354167779</v>
+        <v>1.741635605689688</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.756316101322343</v>
@@ -24269,7 +24161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.737140524286127</v>
+        <v>1.727588419292327</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.293186285479454</v>
@@ -24358,7 +24250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.746828489302694</v>
+        <v>1.732591083684093</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.033711068084767</v>
@@ -24447,7 +24339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.737729860572689</v>
+        <v>1.719973528997426</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.756871090071845</v>
@@ -24536,7 +24428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.725834965870954</v>
+        <v>1.713533854551973</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.210543051353451</v>
@@ -24625,7 +24517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.723913160120672</v>
+        <v>1.711624996746932</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.583453807139314</v>
@@ -24714,7 +24606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.726003052898262</v>
+        <v>1.711499573931894</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.436282646521974</v>
@@ -24803,7 +24695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.722254792654583</v>
+        <v>1.712724428886471</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.48070959011639</v>
@@ -24892,7 +24784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.736218098398283</v>
+        <v>1.720685969024413</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.375792335244689</v>
@@ -24981,7 +24873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.749824395577405</v>
+        <v>1.727629013651404</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.84436915841667</v>
@@ -25070,7 +24962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752445263014617</v>
+        <v>1.72781857022946</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.122071103808744</v>
@@ -25159,7 +25051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.759969440578073</v>
+        <v>1.735126601027886</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.659435611174246</v>
@@ -25248,7 +25140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.768796240781578</v>
+        <v>1.743932289259611</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.760802325869332</v>
@@ -25337,7 +25229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.765325134242617</v>
+        <v>1.743244482581333</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.212511896921168</v>
@@ -25426,7 +25318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.767523507897818</v>
+        <v>1.749671251558324</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.859156570248892</v>
@@ -25515,7 +25407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.777842238726054</v>
+        <v>1.760894984177627</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.45589530766577</v>
@@ -25604,7 +25496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.771601124489906</v>
+        <v>1.754552932470733</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.030425171157654</v>
@@ -25693,7 +25585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.766196584399373</v>
+        <v>1.750067428233616</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.876542425611552</v>
@@ -25782,7 +25674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.780861418898059</v>
+        <v>1.766207866103481</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.027323090747673</v>
@@ -25871,7 +25763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.783189848113904</v>
+        <v>1.765977850254929</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.778191131710567</v>
@@ -25960,7 +25852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.774783452281633</v>
+        <v>1.767665800654476</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.884266330588185</v>
@@ -26049,7 +25941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.782711172108985</v>
+        <v>1.771483983105067</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.674966411041745</v>
@@ -26138,7 +26030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.787672533608738</v>
+        <v>1.773140050246479</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.196758153346778</v>
@@ -26227,7 +26119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.785552596367217</v>
+        <v>1.768052540607971</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.899995443250184</v>
@@ -26316,7 +26208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.784268742449436</v>
+        <v>1.769932702185141</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.941002633325757</v>
@@ -26405,7 +26297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.795130574513642</v>
+        <v>1.774230268490931</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.144574945314623</v>
@@ -26494,7 +26386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.795903232949434</v>
+        <v>1.77330725143346</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.010117682631781</v>
@@ -26583,7 +26475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.780740137351657</v>
+        <v>1.760175672225167</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.30689472647691</v>
@@ -26672,7 +26564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786945633236307</v>
+        <v>1.760269698471286</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.925993830996709</v>
@@ -26761,7 +26653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.76669807871928</v>
+        <v>1.747273878099562</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.91308098333191</v>
@@ -26850,7 +26742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.767574825514388</v>
+        <v>1.748510142187825</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.996270310433991</v>
@@ -26939,7 +26831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.779179134787074</v>
+        <v>1.763434585504551</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.53944099339708</v>
@@ -27028,7 +26920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.770302641081656</v>
+        <v>1.754553656954024</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.007025825332028</v>
@@ -27117,7 +27009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.758317622539115</v>
+        <v>1.76568861628615</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.901588482660755</v>
@@ -27206,7 +27098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.798238337845397</v>
+        <v>1.81175966481435</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.092674089666039</v>
@@ -27295,7 +27187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.830729665138904</v>
+        <v>1.842999658308637</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.296679530953603</v>
@@ -27384,7 +27276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.787246571342552</v>
+        <v>1.808709879522379</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.288046536110995</v>
@@ -27473,7 +27365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.767008771374933</v>
+        <v>1.794430419415129</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.302105722666871</v>
@@ -27562,7 +27454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.767061801729259</v>
+        <v>1.797288133084089</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.283455268906417</v>
@@ -27651,7 +27543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.762560059899574</v>
+        <v>1.792918481275651</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.250090122575</v>
@@ -27740,7 +27632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.76493797380791</v>
+        <v>1.795480898879365</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.282168607781816</v>
@@ -27829,7 +27721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.760872055853795</v>
+        <v>1.792020616777615</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.276682335422123</v>
@@ -27918,7 +27810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.766387479731</v>
+        <v>1.796922868032697</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.27720385023934</v>
@@ -28007,7 +27899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.760924952541092</v>
+        <v>1.792331498792746</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.272197609607946</v>
@@ -28096,7 +27988,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.766730587066092</v>
+        <v>1.796460897963347</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.279914973278477</v>
@@ -28185,7 +28077,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.763881341226958</v>
+        <v>1.793340649834191</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.273056776394729</v>
@@ -28274,7 +28166,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.760661520245107</v>
+        <v>1.789492961918299</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.292935862343659</v>
@@ -28363,7 +28255,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.763206319859126</v>
+        <v>1.792611056629193</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.221197767110454</v>
@@ -28452,7 +28344,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.76727439880075</v>
+        <v>1.787833046268636</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.212118910746114</v>
@@ -28541,7 +28433,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.744547856637652</v>
+        <v>1.759309068548945</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.33668697509374</v>
@@ -28630,7 +28522,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.635633690437427</v>
+        <v>1.638822822352039</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.099996319674923</v>
@@ -28719,7 +28611,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.718388759615817</v>
+        <v>1.69832491052899</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.258378471134886</v>
@@ -28808,7 +28700,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.739661933842009</v>
+        <v>1.712579714086007</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.909455053604292</v>
@@ -28897,7 +28789,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.745172092610213</v>
+        <v>1.712646144294756</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.242901393328801</v>
@@ -29183,7 +29075,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.450488034925139</v>
+        <v>1.451823571136032</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.358780383663036</v>
@@ -29272,7 +29164,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452274082442328</v>
+        <v>1.458301248056862</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.364936411858293</v>
@@ -29361,7 +29253,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465929959524988</v>
+        <v>1.46837795329508</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.250594230485687</v>
@@ -29450,7 +29342,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477539671657315</v>
+        <v>1.480278940838555</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.367012649482207</v>
@@ -29539,7 +29431,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.479424582860311</v>
+        <v>1.475027795267116</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.442021088117868</v>
@@ -29628,7 +29520,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.47082662398641</v>
+        <v>1.464610745334678</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.258447599800703</v>
@@ -29717,7 +29609,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.521239891060965</v>
+        <v>1.518417507873185</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.337133788399836</v>
@@ -29806,7 +29698,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.497654290456172</v>
+        <v>1.487537890426415</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.455883660181775</v>
@@ -29895,7 +29787,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.478415750025536</v>
+        <v>1.465778828302509</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.570476955555942</v>
@@ -29984,7 +29876,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.500144123402537</v>
+        <v>1.489104577860149</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.654804547729556</v>
@@ -30073,7 +29965,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.497010755268827</v>
+        <v>1.480147474363301</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.496988297227152</v>
@@ -30162,7 +30054,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.479295378922977</v>
+        <v>1.467481516652026</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.51794096504987</v>
@@ -30251,7 +30143,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.478747787038239</v>
+        <v>1.466653068778664</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.451004915584953</v>
@@ -30340,7 +30232,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.487584294812051</v>
+        <v>1.473783556469057</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.301071552117161</v>
@@ -30429,7 +30321,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.477023881028821</v>
+        <v>1.467837225423696</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.432265901554917</v>
@@ -30518,7 +30410,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.487274285086948</v>
+        <v>1.478598824020651</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.361582390813395</v>
@@ -30607,7 +30499,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.498392217944122</v>
+        <v>1.480403667949727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.4585938770671</v>
@@ -30696,7 +30588,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.497548146724407</v>
+        <v>1.479698348403389</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.547767112419015</v>
@@ -30785,7 +30677,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.501740827056077</v>
+        <v>1.485682284579122</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.517680110218771</v>
@@ -30874,7 +30766,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.523786482219783</v>
+        <v>1.502813898472764</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.192190291324217</v>
@@ -30963,7 +30855,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.51415501037784</v>
+        <v>1.498514037739921</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.454750949293551</v>
@@ -31052,7 +30944,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.507422393425285</v>
+        <v>1.494898959954187</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.383361635790392</v>
@@ -31141,7 +31033,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.535179728436811</v>
+        <v>1.52208164790066</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.215441183574727</v>
@@ -31230,7 +31122,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.537755187521364</v>
+        <v>1.526548220676331</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.511147171361741</v>
@@ -31319,7 +31211,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.519379006623747</v>
+        <v>1.505823432321229</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.419680929982939</v>
@@ -31408,7 +31300,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53212764917648</v>
+        <v>1.523889099003035</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.347871184512719</v>
@@ -31497,7 +31389,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.524196650260717</v>
+        <v>1.515180099042251</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.527421211273408</v>
@@ -31586,7 +31478,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.488579578678486</v>
+        <v>1.483325542738127</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.408663380562597</v>
@@ -31675,7 +31567,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.483955337456159</v>
+        <v>1.480402105827296</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.243397754241442</v>
@@ -31764,7 +31656,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484273050862404</v>
+        <v>1.479652073393539</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.352717255313296</v>
@@ -31853,7 +31745,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.470859049972012</v>
+        <v>1.465693703845669</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.351236301359289</v>
@@ -31942,7 +31834,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.459587631248683</v>
+        <v>1.457331752731042</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.218962054045056</v>
@@ -32031,7 +31923,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.474755145643891</v>
+        <v>1.473482666880532</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.272407660769121</v>
@@ -32120,7 +32012,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.484080532495459</v>
+        <v>1.478110536287581</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.393201152256411</v>
@@ -32209,7 +32101,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.464181683208671</v>
+        <v>1.458525405695228</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.252685340640101</v>
@@ -32298,7 +32190,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.46694751513078</v>
+        <v>1.461751687764437</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.3631326713339</v>
@@ -32387,7 +32279,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.44130463012399</v>
+        <v>1.438487013464725</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.386105537651813</v>
@@ -32476,7 +32368,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.431636058022308</v>
+        <v>1.429028293402968</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.500425830112574</v>
@@ -32565,7 +32457,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.43735523958634</v>
+        <v>1.435084746183612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.476284181928926</v>
@@ -32654,7 +32546,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.434847291460015</v>
+        <v>1.429544063821504</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.50148630864996</v>
@@ -32743,7 +32635,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.415540867530821</v>
+        <v>1.424585837076631</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.906771292181784</v>
@@ -32832,7 +32724,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.516680266066133</v>
+        <v>1.537921436804913</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.12031843542167</v>
@@ -32921,7 +32813,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607963824630978</v>
+        <v>1.6339386516171</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.279555395962355</v>
@@ -33010,7 +32902,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.57519114162907</v>
+        <v>1.595501649649212</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.307794891792634</v>
@@ -33099,7 +32991,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.568418738956177</v>
+        <v>1.595199705277915</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.365773083016722</v>
@@ -33188,7 +33080,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56218290278611</v>
+        <v>1.590604385923998</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.378270679705603</v>
@@ -33277,7 +33169,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.562497584661059</v>
+        <v>1.591809739875237</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.357644940304274</v>
@@ -33366,7 +33258,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.558189028805651</v>
+        <v>1.588041796636243</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.31186692122077</v>
@@ -33455,7 +33347,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.55139129168751</v>
+        <v>1.581239467969954</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.284741063823975</v>
@@ -33544,7 +33436,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.562183872213826</v>
+        <v>1.592293832040405</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.352066366875181</v>
@@ -33633,7 +33525,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.557697173245611</v>
+        <v>1.583132824301145</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.382842340742272</v>
@@ -33722,7 +33614,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.557933545800029</v>
+        <v>1.587023850682684</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.264239577488266</v>
@@ -33811,7 +33703,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.564465731055872</v>
+        <v>1.592974815328919</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.24080313061785</v>
@@ -33900,7 +33792,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.568413717270565</v>
+        <v>1.596034637829499</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.278117219450213</v>
@@ -33989,7 +33881,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.579163640914871</v>
+        <v>1.605196581792721</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.239282822049682</v>
@@ -34078,7 +33970,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.603573853037552</v>
+        <v>1.622450974527698</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.383380187743544</v>
@@ -34167,7 +34059,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.544079026542436</v>
+        <v>1.561908130710969</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.436202054792056</v>
@@ -34256,7 +34148,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.40041002879667</v>
+        <v>1.40053128056083</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.207853395529538</v>
@@ -34345,7 +34237,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.446168681763768</v>
+        <v>1.449769693554303</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.102790882336854</v>
@@ -34434,7 +34326,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.460202272519661</v>
+        <v>1.460411489780517</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.359670600570599</v>
@@ -34523,7 +34415,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.466259399532173</v>
+        <v>1.464006041788672</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.343777074520384</v>
@@ -34809,7 +34701,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.48532497612331</v>
+        <v>1.479071951500569</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.317431858513975</v>
@@ -34898,7 +34790,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.485345009096035</v>
+        <v>1.479712966310645</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.353083104082699</v>
@@ -34987,7 +34879,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.497140387434871</v>
+        <v>1.489891241220499</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.231957557150411</v>
@@ -35076,7 +34968,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513953898531298</v>
+        <v>1.507247770284852</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.42298703011881</v>
@@ -35165,7 +35057,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.507711043558874</v>
+        <v>1.494048542650661</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.476605953398023</v>
@@ -35254,7 +35146,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495157248268576</v>
+        <v>1.481689232555765</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.262251175805645</v>
@@ -35343,7 +35235,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.538696439029272</v>
+        <v>1.522130365314964</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.286140305024683</v>
@@ -35432,7 +35324,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.53113058039279</v>
+        <v>1.514898928876415</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.432089724357474</v>
@@ -35521,7 +35413,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.506118685851584</v>
+        <v>1.48936329056755</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.492542583492796</v>
@@ -35610,7 +35502,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524872976131585</v>
+        <v>1.512555781056653</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.606670333114427</v>
@@ -35699,7 +35591,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522296962349979</v>
+        <v>1.505620449832528</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.525669488645807</v>
@@ -35788,7 +35680,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504473951233508</v>
+        <v>1.493349357685359</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.59949681645135</v>
@@ -35877,7 +35769,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50257512687544</v>
+        <v>1.496811847335234</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.533641085853696</v>
@@ -35966,7 +35858,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.516962756455529</v>
+        <v>1.509034014399046</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.44955029470792</v>
@@ -36055,7 +35947,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.51021779701605</v>
+        <v>1.504040898944809</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.494510132518931</v>
@@ -36144,7 +36036,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525739262276414</v>
+        <v>1.520981890955808</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.451585702791466</v>
@@ -36233,7 +36125,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549612901844578</v>
+        <v>1.53576550072806</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.719954394393648</v>
@@ -36322,7 +36214,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559336898037256</v>
+        <v>1.54400211629204</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.660476441830121</v>
@@ -36411,7 +36303,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575562278830603</v>
+        <v>1.563353441720796</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.497135227643269</v>
@@ -36500,7 +36392,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.600115896445726</v>
+        <v>1.584523792003508</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.437942374642752</v>
@@ -36589,7 +36481,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585787701908677</v>
+        <v>1.575882820532169</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.45683782873054</v>
@@ -36678,7 +36570,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584460238032713</v>
+        <v>1.57872672259911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.534802867451273</v>
@@ -36767,7 +36659,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.608632347149294</v>
+        <v>1.595415396904943</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.276145235453961</v>
@@ -36856,7 +36748,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627689982239145</v>
+        <v>1.618124325847744</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.581115329905484</v>
@@ -36945,7 +36837,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.630600909540621</v>
+        <v>1.619503227349555</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.566487029344399</v>
@@ -37034,7 +36926,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658597687815539</v>
+        <v>1.648300108819259</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.651874366210647</v>
@@ -37123,7 +37015,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662883512021698</v>
+        <v>1.650620743167812</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.701632842944919</v>
@@ -37212,7 +37104,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621353601456839</v>
+        <v>1.611432344373529</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.512613065011633</v>
@@ -37301,7 +37193,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631254066900335</v>
+        <v>1.624095899150447</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.372682270586471</v>
@@ -37390,7 +37282,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635469206454299</v>
+        <v>1.627886719805634</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.415246492255902</v>
@@ -37479,7 +37371,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629752928075032</v>
+        <v>1.62113452467525</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.446607185889845</v>
@@ -37568,7 +37460,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629811522199692</v>
+        <v>1.627725079107978</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.463290087654795</v>
@@ -37657,7 +37549,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643194287209643</v>
+        <v>1.641302219353749</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.428706613513791</v>
@@ -37746,7 +37638,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640415868066249</v>
+        <v>1.633048260622819</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.319428619074518</v>
@@ -37835,7 +37727,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633443841546805</v>
+        <v>1.625868673793037</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.353334597650981</v>
@@ -37924,7 +37816,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.658838886421929</v>
+        <v>1.649671321757761</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.394663015658676</v>
@@ -38013,7 +37905,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.63341074256087</v>
+        <v>1.627719794388831</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.393077823877986</v>
@@ -38102,7 +37994,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632648198804866</v>
+        <v>1.630491869193024</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.485599328609138</v>
@@ -38191,7 +38083,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.648526137649295</v>
+        <v>1.645979251495365</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.569127558420197</v>
@@ -38280,7 +38172,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627321887704675</v>
+        <v>1.624933200406155</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.506293508956156</v>
@@ -38369,7 +38261,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577743351068217</v>
+        <v>1.584948158342772</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.962393015977697</v>
@@ -38458,7 +38350,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.565111303364739</v>
+        <v>1.584071019587171</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.015504007113044</v>
@@ -38547,7 +38439,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62268220972322</v>
+        <v>1.631323753744817</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.149880250070912</v>
@@ -38636,7 +38528,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55388765810528</v>
+        <v>1.577915721016384</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.177233169080366</v>
@@ -38725,7 +38617,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556168966112186</v>
+        <v>1.586394326115594</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.136329629387532</v>
@@ -38814,7 +38706,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.548672696563014</v>
+        <v>1.57745736610216</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.163101481956291</v>
@@ -38903,7 +38795,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.541764971331012</v>
+        <v>1.571002997493516</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.165434321661988</v>
@@ -38992,7 +38884,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.54387054971093</v>
+        <v>1.573498005222615</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.164540918237276</v>
@@ -39081,7 +38973,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.54247000659387</v>
+        <v>1.574046610193251</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.171484091265445</v>
@@ -39170,7 +39062,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.544889625669906</v>
+        <v>1.575485132585236</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.164934203069086</v>
@@ -39259,7 +39151,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.538811900645501</v>
+        <v>1.564980827742041</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.176617744303357</v>
@@ -39348,7 +39240,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.535503609523589</v>
+        <v>1.566384326643427</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.173538086079279</v>
@@ -39437,7 +39329,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.532401159537264</v>
+        <v>1.562622279358809</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.181164442465563</v>
@@ -39526,7 +39418,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.531474473900359</v>
+        <v>1.561422613911331</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.183885130566954</v>
@@ -39615,7 +39507,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.536130703678982</v>
+        <v>1.567161262645353</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.163982978933667</v>
@@ -39704,7 +39596,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.555459314969829</v>
+        <v>1.578806908819858</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.093949779384327</v>
@@ -39793,7 +39685,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.554094221024574</v>
+        <v>1.579298921069403</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.993210566213702</v>
@@ -39882,7 +39774,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.522844850510819</v>
+        <v>1.534551992089368</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.903803249089054</v>
@@ -39971,7 +39863,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.599837537299682</v>
+        <v>1.602254637924922</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.733512789118993</v>
@@ -40060,7 +39952,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.604997932860198</v>
+        <v>1.607522696101797</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.539240379733778</v>
@@ -40149,7 +40041,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.613577759054149</v>
+        <v>1.61840359299295</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.467133506729911</v>
